--- a/Profils/DonnéesPDI-50_EnR-SaisonEte.xlsx
+++ b/Profils/DonnéesPDI-50_EnR-SaisonEte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V2 Données Ete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison été/V4 Données Ete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FE27C194-8612-4CA1-A0CF-EB2777EF3F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{FE27C194-8612-4CA1-A0CF-EB2777EF3F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8DEDDA0-5105-4812-8790-91746E66EFEC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +360,7 @@
   <dimension ref="A1:A4278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +450,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>39.435855016088098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -464,47 +460,47 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>85.174993468760434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>90.173872976996279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -664,17 +660,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>47.805882876817414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>29.046528065811511</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -709,17 +705,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>46.693026653219931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -864,27 +860,27 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>8.7965311434471385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>95</v>
+        <v>64.854133986457242</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -934,27 +930,27 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>3.8254182874707476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
@@ -1069,32 +1065,32 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>60.844681265907639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>95</v>
+        <v>91.907451952167989</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -1129,47 +1125,47 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>95</v>
+        <v>80.355313855843477</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>95</v>
+        <v>50.351390155042388</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>95</v>
+        <v>57.084609325478297</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>84.469032719356989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -1294,87 +1290,87 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>95</v>
+        <v>24.313723334773893</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>95</v>
+        <v>65.710454161263684</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>95</v>
+        <v>49.298922921768899</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>22.999889054137967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
@@ -1529,62 +1525,62 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>65.183090236757351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>56.045045574604814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -2104,57 +2100,57 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>38.519448867432146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>48.284998423809519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>64.450827402391525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -2309,32 +2305,32 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>10.226632089516279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>95</v>
+        <v>79.182990907801653</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
@@ -2354,37 +2350,37 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>95</v>
+        <v>80.407029965181792</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>95</v>
+        <v>39.003975870366197</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>95</v>
+        <v>44.423384258950172</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
@@ -2504,92 +2500,92 @@
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>48.512937280891279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>95</v>
+        <v>64.309395188013085</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>95</v>
+        <v>54.319284252989227</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>95</v>
+        <v>77.059116938001026</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>95</v>
+        <v>93.793797243432707</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>95</v>
+        <v>70.802282860298519</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>95</v>
+        <v>0.24925937665066158</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>95</v>
+        <v>48.014550833213072</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>95</v>
+        <v>34.303958123229023</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>95</v>
+        <v>51.492727464822451</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>95</v>
+        <v>16.104361454549871</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
@@ -2599,27 +2595,27 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>95</v>
+        <v>39.663626690106682</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -2729,17 +2725,17 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>87.664169812226532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
@@ -2774,52 +2770,52 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>95</v>
+        <v>70.446712961629018</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>95</v>
+        <v>64.543003409691082</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>95</v>
+        <v>29.350344186716608</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>95</v>
+        <v>5.2032844450846456</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>95</v>
+        <v>34.69888818316911</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
@@ -2974,22 +2970,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>13.568268068962135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>82.810098929068701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>2.0081842673967913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>45.57011698602517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -3004,22 +3000,22 @@
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>36.308891178024567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
@@ -3224,7 +3220,7 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>20.604148297555732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -3339,17 +3335,17 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>36.917840368823022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>4.1789951495941935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
@@ -3544,57 +3540,57 @@
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>86.709929085822452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>86.8735341689476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
@@ -3739,32 +3735,32 @@
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>95</v>
+        <v>86.293512557481222</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -3809,22 +3805,22 @@
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>95</v>
+        <v>39.447264516881184</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
@@ -3944,32 +3940,32 @@
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>95</v>
+        <v>3.0854828795082718</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>95</v>
+        <v>87.994853431302118</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
@@ -4039,27 +4035,27 @@
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>95</v>
+        <v>80.950652778252632</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>95</v>
+        <v>12.485750171119653</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>72.484965860295986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
@@ -4169,97 +4165,97 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>95</v>
+        <v>43.276366421745116</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>95</v>
+        <v>74.268271190510347</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>95</v>
+        <v>90.33274667435056</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>95</v>
+        <v>53.682697065744655</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>95</v>
+        <v>33.756426019305579</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>95</v>
+        <v>13.400453777073343</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>95</v>
+        <v>73.664727248995248</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>95</v>
+        <v>71.55116264565288</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>95</v>
+        <v>3.4026511706690505</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>95</v>
+        <v>61.119321924593017</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>95</v>
+        <v>23.948595880303692</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
@@ -4429,7 +4425,7 @@
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>49.43735768140985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
@@ -4439,22 +4435,22 @@
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
@@ -4779,22 +4775,22 @@
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>61.210047063343453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>85.823319118282171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
@@ -4974,17 +4970,17 @@
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>95</v>
+        <v>5.2291935044139244</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
@@ -5019,12 +5015,12 @@
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
@@ -5164,22 +5160,22 @@
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>56.886755702828452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>91.6978734092108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
-        <v>95</v>
+        <v>73.645410162662657</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
@@ -5249,22 +5245,22 @@
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
-        <v>95</v>
+        <v>86.701165732444423</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
@@ -5384,12 +5380,12 @@
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
@@ -5444,47 +5440,47 @@
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
-        <v>95</v>
+        <v>66.302578409723566</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
-        <v>95</v>
+        <v>6.5373326867867583</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
@@ -5619,77 +5615,77 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
-        <v>21.888843154204295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>42.028625189595544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <v>92.843964701558065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <v>17.595171240421408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
@@ -6194,52 +6190,52 @@
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <v>41.295271523874185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
-        <v>0.1821168419537571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
@@ -6399,27 +6395,27 @@
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <v>95</v>
+        <v>9.2278561701546273</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
@@ -6459,27 +6455,27 @@
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
-        <v>53.452905414190532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
@@ -6599,32 +6595,32 @@
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
-        <v>95</v>
+        <v>17.080049432020243</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
@@ -6699,12 +6695,12 @@
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <v>13.976170444571398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
@@ -6819,117 +6815,117 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1">
-        <v>95</v>
+        <v>25.175773327570276</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
-        <v>95</v>
+        <v>33.760006993165078</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
-        <v>95</v>
+        <v>20.804794294545793</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <v>95</v>
+        <v>62.21618929681739</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <v>95</v>
+        <v>12.165709209230481</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
-        <v>55.741898678522773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
@@ -7049,82 +7045,82 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
-        <v>95</v>
+        <v>6.9216208177466614</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" s="1">
-        <v>80.907211404031472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" s="1">
-        <v>41.452924937274872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
@@ -7299,12 +7295,12 @@
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
-        <v>50.002622964990515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
@@ -7324,22 +7320,22 @@
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1">
-        <v>95</v>
+        <v>33.317774444077585</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
-        <v>27.01916116793938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
@@ -7619,27 +7615,27 @@
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
-        <v>95</v>
+        <v>5.1994871489567593</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
@@ -7669,32 +7665,32 @@
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460" s="1">
-        <v>95</v>
+        <v>19.09394249325058</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1464" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465" s="1">
-        <v>69.97150509603722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
@@ -7829,32 +7825,32 @@
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
-        <v>95</v>
+        <v>15.576931878865508</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
-        <v>95</v>
+        <v>67.554315429791529</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
@@ -7899,27 +7895,27 @@
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
-        <v>95</v>
+        <v>32.467809886777758</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
@@ -8034,107 +8030,107 @@
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
-        <v>95</v>
+        <v>23.043900290590464</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <v>95</v>
+        <v>32.583761341422871</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
-        <v>95</v>
+        <v>22.35729312637115</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
-        <v>95</v>
+        <v>55.366487770650195</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
-        <v>95</v>
+        <v>51.909505589729598</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
-        <v>95</v>
+        <v>15.57298753193267</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
@@ -8254,107 +8250,107 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
-        <v>63.581611249607739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
-        <v>62.30872773241056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
@@ -8474,32 +8470,32 @@
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
-        <v>76.317053258415612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>95</v>
+        <v>13.395449070739051</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
@@ -8524,42 +8520,42 @@
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
-        <v>95</v>
+        <v>68.79773212313296</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
-        <v>95</v>
+        <v>72.817113000048053</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
-        <v>95</v>
+        <v>27.533939231742043</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
@@ -8744,22 +8740,22 @@
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
@@ -8864,47 +8860,47 @@
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
-        <v>15.50155589664304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
-        <v>88.263712345914314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
-        <v>58.147040436056486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1704" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
@@ -8949,17 +8945,17 @@
     </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1717" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1718" s="1">
-        <v>55.231245214295122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
@@ -8969,12 +8965,12 @@
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1720" s="1">
-        <v>58.687248759462449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721" s="1">
-        <v>19.712139783137754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
@@ -8984,77 +8980,77 @@
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
-        <v>14.397196085740651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>50.798079216131661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>95</v>
+        <v>21.338544775111149</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
@@ -9134,52 +9130,52 @@
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>95</v>
+        <v>79.564846694512894</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1761" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1762" s="1">
-        <v>45.431492827726252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
@@ -9259,22 +9255,22 @@
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>95</v>
+        <v>13.665542652159418</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
@@ -9344,27 +9340,27 @@
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1797" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1798" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1799" s="1">
-        <v>39.975274000557476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
@@ -9459,17 +9455,17 @@
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <v>16.67122512501599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <v>95</v>
+        <v>92.703553376793934</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
@@ -9584,12 +9580,12 @@
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
@@ -9689,12 +9685,12 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
@@ -9754,47 +9750,47 @@
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <v>95</v>
+        <v>90.559107561210325</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1885" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
@@ -9919,87 +9915,87 @@
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910" s="1">
-        <v>19.410819980188609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1911" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1926" s="1">
-        <v>31.487212620136777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
@@ -10029,7 +10025,7 @@
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1932" s="1">
-        <v>18.789743354353337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
@@ -10159,27 +10155,27 @@
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" s="1">
-        <v>68.815080921631093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1962" s="1">
-        <v>95</v>
+        <v>69.189942083273266</v>
       </c>
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
@@ -10204,87 +10200,87 @@
     </row>
     <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1967" s="1">
-        <v>95</v>
+        <v>42.081615455709759</v>
       </c>
     </row>
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968" s="1">
-        <v>95</v>
+        <v>36.155123133073872</v>
       </c>
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1972" s="1">
-        <v>95</v>
+        <v>8.2755682677283033</v>
       </c>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1980" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" s="1">
-        <v>95</v>
+        <v>11.412884502526213</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
@@ -10304,62 +10300,62 @@
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" s="1">
-        <v>95</v>
+        <v>48.785727107166529</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" s="1">
-        <v>95</v>
+        <v>71.554958473597011</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989" s="1">
-        <v>95</v>
+        <v>6.3665391854747577</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990" s="1">
-        <v>95</v>
+        <v>70.800328989887277</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991" s="1">
-        <v>95</v>
+        <v>10.583887643321576</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1992" s="1">
-        <v>95</v>
+        <v>17.181978297717212</v>
       </c>
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1996" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1997" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1998" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
@@ -10384,112 +10380,112 @@
     </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2003" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2004" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2005" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2008" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2010" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2011" s="1">
-        <v>95</v>
+        <v>52.691406473610769</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2012" s="1">
-        <v>95</v>
+        <v>32.525591605436269</v>
       </c>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2016" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2017" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2018" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="1">
-        <v>95</v>
+        <v>65.398489905374362</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
@@ -10554,22 +10550,22 @@
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2040" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
@@ -10664,52 +10660,52 @@
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2059" s="1">
-        <v>25.389096350544644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="1">
-        <v>83.279759250798605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="1">
-        <v>80.69361443823982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2067" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2068" s="1">
-        <v>95</v>
+        <v>75.323997326362374</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
@@ -10789,22 +10785,22 @@
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2086" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2087" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
@@ -10894,17 +10890,17 @@
     </row>
     <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2105" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2106" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2107" s="1">
-        <v>95</v>
+        <v>28.157175393454022</v>
       </c>
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
@@ -11024,12 +11020,12 @@
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2131" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2132" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
@@ -11119,17 +11115,17 @@
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2150" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2151" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2152" s="1">
-        <v>95</v>
+        <v>86.48600126506274</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
@@ -11239,37 +11235,37 @@
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2174" s="1">
-        <v>95</v>
+        <v>74.729807290688257</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2175" s="1">
-        <v>95</v>
+        <v>60.51668990085215</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2176" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2177" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2178" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2179" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2180" s="1">
-        <v>39.682798375635834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
@@ -11349,17 +11345,17 @@
     </row>
     <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2196" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2197" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2198" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
@@ -11444,22 +11440,22 @@
     </row>
     <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2215" s="1">
-        <v>95</v>
+        <v>78.662943150074511</v>
       </c>
     </row>
     <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2216" s="1">
-        <v>95</v>
+        <v>58.723612498974461</v>
       </c>
     </row>
     <row r="2217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2217" s="1">
-        <v>95</v>
+        <v>70.866507511616732</v>
       </c>
     </row>
     <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2218" s="1">
-        <v>95</v>
+        <v>41.828391371333929</v>
       </c>
     </row>
     <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
@@ -11469,37 +11465,37 @@
     </row>
     <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2220" s="1">
-        <v>95</v>
+        <v>73.264326360162457</v>
       </c>
     </row>
     <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2221" s="1">
-        <v>95</v>
+        <v>28.859399457087932</v>
       </c>
     </row>
     <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2222" s="1">
-        <v>95</v>
+        <v>52.225601546927578</v>
       </c>
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2224" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2225" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2226" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
@@ -11514,7 +11510,7 @@
     </row>
     <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2229" s="1">
-        <v>32.05986153088314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
@@ -11524,202 +11520,202 @@
     </row>
     <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2231" s="1">
-        <v>73.996470864396755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2232" s="1">
-        <v>70.624530690677119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2233" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2234" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2236" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2237" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2238" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2239" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2240" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2241" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2242" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2243" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2244" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2245" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2246" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2247" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2248" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2249" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="1">
-        <v>95</v>
+        <v>58.798548624117316</v>
       </c>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="1">
-        <v>95</v>
+        <v>74.572458435383808</v>
       </c>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="1">
-        <v>95</v>
+        <v>19.42399034721231</v>
       </c>
     </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2255" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2257" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2259" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2260" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2264" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2266" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2268" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2269" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2270" s="1">
-        <v>95</v>
+        <v>21.722152685662223</v>
       </c>
     </row>
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
@@ -11769,32 +11765,32 @@
     </row>
     <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2280" s="1">
-        <v>95</v>
+        <v>72.335814596849318</v>
       </c>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2283" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2284" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2285" s="1">
-        <v>25.156307768964687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
@@ -11924,37 +11920,37 @@
     </row>
     <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2311" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2312" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2313" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2314" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2315" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2316" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2317" s="1">
-        <v>95</v>
+        <v>82.528976190836616</v>
       </c>
     </row>
     <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
@@ -11979,37 +11975,37 @@
     </row>
     <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2322" s="1">
-        <v>95</v>
+        <v>0.40236939156071455</v>
       </c>
     </row>
     <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2323" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2324" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2325" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2326" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2327" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2328" s="1">
-        <v>40.305944828479475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2329" spans="1:1" x14ac:dyDescent="0.25">
@@ -12144,87 +12140,87 @@
     </row>
     <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2355" s="1">
-        <v>1.3782224287679856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2356" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2357" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2358" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2359" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2362" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2363" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2364" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2365" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2366" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2367" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2368" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2369" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2370" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2371" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
@@ -12379,17 +12375,17 @@
     </row>
     <row r="2402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2402" s="1">
-        <v>3.5362456427730651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2403" s="1">
-        <v>4.7852698080972917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2404" s="1">
-        <v>1.6070983795040956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2405" spans="1:1" x14ac:dyDescent="0.25">
@@ -12399,12 +12395,12 @@
     </row>
     <row r="2406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2406" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2407" s="1">
-        <v>16.742155121422623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2408" spans="1:1" x14ac:dyDescent="0.25">
@@ -12414,22 +12410,22 @@
     </row>
     <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2409" s="1">
-        <v>79.528072523816022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2410" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2411" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2412" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
@@ -12579,132 +12575,132 @@
     </row>
     <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2442" s="1">
-        <v>64.677112855976375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2443" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2444" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2445" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2446" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2447" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2448" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2451" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2452" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2453" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2454" s="1">
-        <v>95</v>
+        <v>60.235680983557472</v>
       </c>
     </row>
     <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2455" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2456" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2457" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2458" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2459" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2460" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2463" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2464" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2465" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2466" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2467" s="1">
-        <v>22.916696386870971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
@@ -12779,97 +12775,97 @@
     </row>
     <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2482" s="1">
-        <v>64.435183130708381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2483" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2484" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2485" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2486" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2487" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2488" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2489" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2490" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2491" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2492" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2493" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2494" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2495" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2496" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2497" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2498" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2499" s="1">
-        <v>9.4055371471720726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2500" s="1">
-        <v>4.126662269403969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
@@ -13059,12 +13055,12 @@
     </row>
     <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2538" s="1">
-        <v>54.089437737117471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2539" s="1">
-        <v>1.6493878403687994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
@@ -13159,47 +13155,47 @@
     </row>
     <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2559" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2562" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2563" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2565" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2566" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
@@ -13364,17 +13360,17 @@
     </row>
     <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2599" s="1">
-        <v>48.950693795453333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2601" s="1">
-        <v>95</v>
+        <v>33.749771765020782</v>
       </c>
     </row>
     <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
@@ -13424,12 +13420,12 @@
     </row>
     <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2611" s="1">
-        <v>95</v>
+        <v>20.964389774962548</v>
       </c>
     </row>
     <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2612" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
@@ -13594,17 +13590,17 @@
     </row>
     <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2645" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2646" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2647" s="1">
-        <v>95</v>
+        <v>20.441058394161736</v>
       </c>
     </row>
     <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
@@ -13634,27 +13630,27 @@
     </row>
     <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2653" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2654" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2655" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2656" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2657" s="1">
-        <v>31.823681355228402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
@@ -13664,7 +13660,7 @@
     </row>
     <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2659" s="1">
-        <v>41.418762872579023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2660" spans="1:1" x14ac:dyDescent="0.25">
@@ -13794,17 +13790,17 @@
     </row>
     <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2685" s="1">
-        <v>62.991102955408493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2686" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2687" s="1">
-        <v>95</v>
+        <v>62.328062992302655</v>
       </c>
     </row>
     <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
@@ -13864,7 +13860,7 @@
     </row>
     <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2699" s="1">
-        <v>95</v>
+        <v>91.96524934359644</v>
       </c>
     </row>
     <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
@@ -13889,12 +13885,12 @@
     </row>
     <row r="2704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2704" s="1">
-        <v>95</v>
+        <v>68.564376015484086</v>
       </c>
     </row>
     <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2705" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
@@ -14014,7 +14010,7 @@
     </row>
     <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2729" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
@@ -14044,27 +14040,27 @@
     </row>
     <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2735" s="1">
-        <v>95</v>
+        <v>11.35003606588878</v>
       </c>
     </row>
     <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2737" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2738" s="1">
-        <v>82.886655655944566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2739" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
@@ -14074,17 +14070,17 @@
     </row>
     <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2741" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2742" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2743" s="1">
-        <v>87.477447660669924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
@@ -14244,57 +14240,57 @@
     </row>
     <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2775" s="1">
-        <v>11.374018006502956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2776" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2777" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2778" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2779" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2780" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2781" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2782" s="1">
-        <v>95</v>
+        <v>44.318953527704508</v>
       </c>
     </row>
     <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2783" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2784" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2785" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
@@ -14599,47 +14595,47 @@
     </row>
     <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2846" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2847" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2848" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2849" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2850" s="1">
-        <v>95</v>
+        <v>37.44974147675304</v>
       </c>
     </row>
     <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2851" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2852" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2853" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2854" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
@@ -14794,37 +14790,37 @@
     </row>
     <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2885" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2886" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2887" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2888" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2889" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2890" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2891" s="1">
-        <v>95</v>
+        <v>34.687932965474538</v>
       </c>
     </row>
     <row r="2892" spans="1:1" x14ac:dyDescent="0.25">
@@ -14859,37 +14855,37 @@
     </row>
     <row r="2898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2898" s="1">
-        <v>95</v>
+        <v>20.17774074462308</v>
       </c>
     </row>
     <row r="2899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2899" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2900" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2901" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2902" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2903" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2904" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
@@ -15009,42 +15005,42 @@
     </row>
     <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2928" s="1">
-        <v>2.2121907506122804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2929" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2930" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2931" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2932" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2933" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2934" s="1">
-        <v>95</v>
+        <v>10.54802685970375</v>
       </c>
     </row>
     <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2935" s="1">
-        <v>95</v>
+        <v>81.802216610598478</v>
       </c>
     </row>
     <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
@@ -15054,7 +15050,7 @@
     </row>
     <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2937" s="1">
-        <v>95</v>
+        <v>59.493306034874763</v>
       </c>
     </row>
     <row r="2938" spans="1:1" x14ac:dyDescent="0.25">
@@ -15064,47 +15060,47 @@
     </row>
     <row r="2939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2939" s="1">
-        <v>95</v>
+        <v>86.410457187138149</v>
       </c>
     </row>
     <row r="2940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2940" s="1">
-        <v>95</v>
+        <v>32.911439998161441</v>
       </c>
     </row>
     <row r="2941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2941" s="1">
-        <v>95</v>
+        <v>47.905056129381045</v>
       </c>
     </row>
     <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2942" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2943" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2944" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2945" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2946" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2947" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
@@ -15219,87 +15215,87 @@
     </row>
     <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2970" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2971" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2972" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2973" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2974" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2975" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2976" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2977" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2978" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2979" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2980" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2981" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2982" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2983" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2984" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2985" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2986" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
@@ -15309,37 +15305,37 @@
     </row>
     <row r="2988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2988" s="1">
-        <v>95</v>
+        <v>88.931447551168304</v>
       </c>
     </row>
     <row r="2989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2989" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2990" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2991" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2992" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2994" s="1">
-        <v>0.95232669520824853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
@@ -15444,122 +15440,122 @@
     </row>
     <row r="3015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3015" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3016" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3017" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3018" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3019" s="1">
-        <v>95</v>
+        <v>35.260320030734945</v>
       </c>
     </row>
     <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3020" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3021" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3022" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3024" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3025" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3026" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3027" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3028" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3029" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3030" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3031" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3033" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3034" s="1">
-        <v>51.098993979083382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3035" s="1">
-        <v>17.614150736866357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3036" s="1">
-        <v>48.161586183789552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3037" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3038" s="1">
-        <v>62.396152596154209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
@@ -15679,52 +15675,52 @@
     </row>
     <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3063" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3066" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3067" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3068" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3070" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3071" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
@@ -15919,37 +15915,37 @@
     </row>
     <row r="3110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3110" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3111" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3112" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3113" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3114" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3115" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3116" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3117" spans="1:1" x14ac:dyDescent="0.25">
@@ -16019,27 +16015,27 @@
     </row>
     <row r="3130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3130" s="1">
-        <v>55.067311930405928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3131" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3132" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3133" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3134" s="1">
-        <v>95</v>
+        <v>22.930576975362563</v>
       </c>
     </row>
     <row r="3135" spans="1:1" x14ac:dyDescent="0.25">
@@ -16074,17 +16070,17 @@
     </row>
     <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3141" s="1">
-        <v>95</v>
+        <v>14.657554839184378</v>
       </c>
     </row>
     <row r="3142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3142" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3143" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3144" spans="1:1" x14ac:dyDescent="0.25">
@@ -16174,27 +16170,27 @@
     </row>
     <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3161" s="1">
-        <v>8.080093065304462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3162" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3163" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3164" s="1">
-        <v>80.326665321999386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3165" s="1">
-        <v>73.113719252749064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
@@ -16229,37 +16225,37 @@
     </row>
     <row r="3172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3174" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3175" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3176" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3177" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3178" s="1">
-        <v>95</v>
+        <v>90.599766711121262</v>
       </c>
     </row>
     <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
@@ -16304,27 +16300,27 @@
     </row>
     <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3187" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3188" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3189" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3190" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3191" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3192" spans="1:1" x14ac:dyDescent="0.25">
@@ -16439,37 +16435,37 @@
     </row>
     <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3214" s="1">
-        <v>34.204960284300981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3215" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3216" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3217" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3218" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3219" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3220" s="1">
-        <v>95</v>
+        <v>46.759425427323073</v>
       </c>
     </row>
     <row r="3221" spans="1:1" x14ac:dyDescent="0.25">
@@ -16514,42 +16510,42 @@
     </row>
     <row r="3229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3229" s="1">
-        <v>95</v>
+        <v>62.878993884157019</v>
       </c>
     </row>
     <row r="3230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3230" s="1">
-        <v>95</v>
+        <v>56.145537874443171</v>
       </c>
     </row>
     <row r="3231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3231" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3232" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3233" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3234" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3236" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
@@ -16654,87 +16650,87 @@
     </row>
     <row r="3257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3257" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3259" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3260" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3261" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3262" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3263" s="1">
-        <v>95</v>
+        <v>43.315635411381734</v>
       </c>
     </row>
     <row r="3264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3264" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3265" s="1">
-        <v>95</v>
+        <v>91.447570500368812</v>
       </c>
     </row>
     <row r="3266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3266" s="1">
-        <v>95</v>
+        <v>59.995970479365276</v>
       </c>
     </row>
     <row r="3267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3267" s="1">
-        <v>95</v>
+        <v>22.74060046816674</v>
       </c>
     </row>
     <row r="3268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3268" s="1">
-        <v>95</v>
+        <v>49.82033597015856</v>
       </c>
     </row>
     <row r="3269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3269" s="1">
-        <v>95</v>
+        <v>70.679906921241425</v>
       </c>
     </row>
     <row r="3270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3270" s="1">
-        <v>95</v>
+        <v>41.925622962187553</v>
       </c>
     </row>
     <row r="3271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3271" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3272" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3273" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3274" spans="1:1" x14ac:dyDescent="0.25">
@@ -16744,42 +16740,42 @@
     </row>
     <row r="3275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3275" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3276" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3277" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3278" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3279" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3283" spans="1:1" x14ac:dyDescent="0.25">
@@ -16879,67 +16875,67 @@
     </row>
     <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3302" s="1">
-        <v>56.099754982471126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3303" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3304" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3305" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3306" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3307" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3308" s="1">
-        <v>95</v>
+        <v>7.1664214570423797</v>
       </c>
     </row>
     <row r="3309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3309" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3310" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3311" s="1">
-        <v>95</v>
+        <v>6.1136135898814965</v>
       </c>
     </row>
     <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3312" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3313" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3314" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
@@ -16949,57 +16945,57 @@
     </row>
     <row r="3316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3316" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3317" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3318" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3319" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3320" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3321" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3322" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3323" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3324" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3325" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3326" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
@@ -17009,7 +17005,7 @@
     </row>
     <row r="3328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3328" s="1">
-        <v>50.157452573114348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
@@ -17109,67 +17105,67 @@
     </row>
     <row r="3348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3348" s="1">
-        <v>50.306151113769374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3349" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3350" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3351" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3352" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3353" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3354" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3355" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3356" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3357" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3358" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3359" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
@@ -17254,12 +17250,12 @@
     </row>
     <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3377" s="1">
-        <v>35.153983451402823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3378" s="1">
-        <v>28.286127011044083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
@@ -17354,12 +17350,12 @@
     </row>
     <row r="3397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3397" s="1">
-        <v>30.037153973335446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3398" s="1">
-        <v>79.080615046479281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
@@ -17369,17 +17365,17 @@
     </row>
     <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3400" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3401" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3402" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
@@ -17464,62 +17460,62 @@
     </row>
     <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3419" s="1">
-        <v>71.400986546042759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3420" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3421" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3422" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3423" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3424" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3425" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3426" s="1">
-        <v>95</v>
+        <v>20.787261250888044</v>
       </c>
     </row>
     <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3427" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3428" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3429" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3430" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3431" spans="1:1" x14ac:dyDescent="0.25">
@@ -17669,37 +17665,37 @@
     </row>
     <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3460" s="1">
-        <v>31.039043425305501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3461" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3462" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3463" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3464" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3465" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3466" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
@@ -17739,32 +17735,32 @@
     </row>
     <row r="3474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3474" s="1">
-        <v>95</v>
+        <v>47.866544095302743</v>
       </c>
     </row>
     <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3475" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3476" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3477" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3478" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3479" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
@@ -17884,107 +17880,107 @@
     </row>
     <row r="3503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3503" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3504" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3505" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3506" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3507" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3508" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3509" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3510" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3511" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3512" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3513" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3514" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3515" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3516" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3517" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3518" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3519" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3520" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3521" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3522" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3523" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
@@ -18094,122 +18090,122 @@
     </row>
     <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3545" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3546" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3547" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3548" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3549" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3550" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3551" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3553" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3554" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3555" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3556" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3557" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3558" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3559" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3560" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3561" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3562" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3563" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3564" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3565" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3566" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3567" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3568" s="1">
-        <v>58.664242134230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3569" spans="1:1" x14ac:dyDescent="0.25">
@@ -18319,122 +18315,122 @@
     </row>
     <row r="3590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3593" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3594" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3596" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3597" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3598" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3599" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3600" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3601" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3602" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3603" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3604" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3605" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3606" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3607" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3608" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3609" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3610" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3611" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3612" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3613" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
@@ -18574,12 +18570,12 @@
     </row>
     <row r="3641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3641" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3642" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:1" x14ac:dyDescent="0.25">
@@ -18899,62 +18895,62 @@
     </row>
     <row r="3706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3706" s="1">
-        <v>63.88032165121178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3707" s="1">
-        <v>65.554088740918019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3708" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3709" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3710" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3711" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3712" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3713" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3714" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3715" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3717" s="1">
-        <v>52.797050699325268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3718" spans="1:1" x14ac:dyDescent="0.25">
